--- a/Excel/excel pwd.xlsx
+++ b/Excel/excel pwd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subbian\eclipse-workspace\Arch\ExcelFetch\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F388B81-FA0B-4964-B10D-A8A42BC62E2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A6D817-F6E9-4F2E-A7EF-2D7D280DDB18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F784CBA-B80A-4C52-ADA8-B1DB92FF5F4E}"/>
+    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{6F784CBA-B80A-4C52-ADA8-B1DB92FF5F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Site</t>
   </si>
@@ -60,13 +60,16 @@
   </si>
   <si>
     <t>snap2217</t>
+  </si>
+  <si>
+    <t>iphone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -104,9 +114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,7 +436,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,8 +461,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -481,10 +492,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{95F288DE-0678-403A-BA4C-85E4CB84F167}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7BC996D2-6728-4AB3-A469-0510AADDCB8E}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E45CE4A9-162F-4A69-B6BC-71C9049741E8}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{7BC996D2-6728-4AB3-A469-0510AADDCB8E}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{E45CE4A9-162F-4A69-B6BC-71C9049741E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>